--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample05/Sample-05.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample05/Sample-05.xlsx
@@ -262,20 +262,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="chpnsk2g" xfId="1"/>
-    <cellStyle name="chpnsk2g_Alternate" xfId="2"/>
-    <cellStyle name="llnvdis5" xfId="3"/>
-    <cellStyle name="llnvdis5_Alternate" xfId="4"/>
-    <cellStyle name="kmhffggv" xfId="5"/>
-    <cellStyle name="kmhffggv_Alternate" xfId="6"/>
-    <cellStyle name="z04mqilm" xfId="7"/>
-    <cellStyle name="z04mqilm_Alternate" xfId="8"/>
+    <cellStyle name="q4kkjhe0" xfId="1"/>
+    <cellStyle name="q4kkjhe0_Alternate" xfId="2"/>
+    <cellStyle name="jutu0sx4" xfId="3"/>
+    <cellStyle name="jutu0sx4_Alternate" xfId="4"/>
+    <cellStyle name="xlsawagk" xfId="5"/>
+    <cellStyle name="xlsawagk_Alternate" xfId="6"/>
+    <cellStyle name="seqpqb0v" xfId="7"/>
+    <cellStyle name="seqpqb0v_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="4valeqj4" xfId="11"/>
-    <cellStyle name="4valeqj4_Alternate" xfId="12"/>
-    <cellStyle name="jy5odkde" xfId="13"/>
-    <cellStyle name="jy5odkde_Alternate" xfId="14"/>
+    <cellStyle name="o0pp1ok1" xfId="11"/>
+    <cellStyle name="o0pp1ok1_Alternate" xfId="12"/>
+    <cellStyle name="oxcgoa2b" xfId="13"/>
+    <cellStyle name="oxcgoa2b_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -699,7 +699,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{c6b2e2d1-8f79-4c65-a93d-d2a6ab33e54d}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{601d066a-5076-4218-9ead-abdcb2840751}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>

--- a/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample05/Sample-05.xlsx
+++ b/src/test/iXlsxWriter.ConsoleAppCore/Output/Sample05/Sample-05.xlsx
@@ -262,20 +262,20 @@
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="q4kkjhe0" xfId="1"/>
-    <cellStyle name="q4kkjhe0_Alternate" xfId="2"/>
-    <cellStyle name="jutu0sx4" xfId="3"/>
-    <cellStyle name="jutu0sx4_Alternate" xfId="4"/>
-    <cellStyle name="xlsawagk" xfId="5"/>
-    <cellStyle name="xlsawagk_Alternate" xfId="6"/>
-    <cellStyle name="seqpqb0v" xfId="7"/>
-    <cellStyle name="seqpqb0v_Alternate" xfId="8"/>
+    <cellStyle name="wnnklsj2" xfId="1"/>
+    <cellStyle name="wnnklsj2_Alternate" xfId="2"/>
+    <cellStyle name="4zvoui0s" xfId="3"/>
+    <cellStyle name="4zvoui0s_Alternate" xfId="4"/>
+    <cellStyle name="3dd2b043" xfId="5"/>
+    <cellStyle name="3dd2b043_Alternate" xfId="6"/>
+    <cellStyle name="kulki1mu" xfId="7"/>
+    <cellStyle name="kulki1mu_Alternate" xfId="8"/>
     <cellStyle name="LocalHeader-1" xfId="9"/>
     <cellStyle name="LocalHeader-1_Alternate" xfId="10"/>
-    <cellStyle name="o0pp1ok1" xfId="11"/>
-    <cellStyle name="o0pp1ok1_Alternate" xfId="12"/>
-    <cellStyle name="oxcgoa2b" xfId="13"/>
-    <cellStyle name="oxcgoa2b_Alternate" xfId="14"/>
+    <cellStyle name="g42qvfkr" xfId="11"/>
+    <cellStyle name="g42qvfkr_Alternate" xfId="12"/>
+    <cellStyle name="vgvdximl" xfId="13"/>
+    <cellStyle name="vgvdximl_Alternate" xfId="14"/>
     <cellStyle name="LocalHeader0" xfId="15"/>
     <cellStyle name="LocalHeader0_Alternate" xfId="16"/>
     <cellStyle name="LocalHeader1" xfId="17"/>
@@ -699,7 +699,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{601d066a-5076-4218-9ead-abdcb2840751}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{889d3da2-1805-4e0e-8b27-39fd4a5af2d2}" type="line" displayHidden="0" displayEmptyCellsAs="gap" dateAxis="1" rightToLeft="0" maxAxisType="Individual" minAxisType="Individual" low="1" first="1" high="1" last="1" negative="1">
           <x14:colorSeries rgb="FFFF5733"/>
           <x14:colorNegative rgb="FFFF0000"/>
           <x14:colorAxis rgb="FF000000"/>
